--- a/Distribuciones/estimado cosecha.xlsx
+++ b/Distribuciones/estimado cosecha.xlsx
@@ -19,184 +19,184 @@
     <t>Estimado cosecha</t>
   </si>
   <si>
-    <t>65.90589370315993</t>
-  </si>
-  <si>
-    <t>41.6727256504297</t>
-  </si>
-  <si>
-    <t>34.202332119438665</t>
-  </si>
-  <si>
-    <t>69.88562482737986</t>
-  </si>
-  <si>
-    <t>47.683031203861134</t>
-  </si>
-  <si>
-    <t>31.98726375194277</t>
-  </si>
-  <si>
-    <t>62.118178601815444</t>
-  </si>
-  <si>
-    <t>26.120091126187024</t>
-  </si>
-  <si>
-    <t>70.53888777390462</t>
-  </si>
-  <si>
-    <t>89.15328819162754</t>
-  </si>
-  <si>
-    <t>36.03568902272379</t>
-  </si>
-  <si>
-    <t>52.40368249897384</t>
-  </si>
-  <si>
-    <t>51.86344986072506</t>
-  </si>
-  <si>
-    <t>57.35538085501439</t>
-  </si>
-  <si>
-    <t>49.217732587690755</t>
-  </si>
-  <si>
-    <t>36.768442621247544</t>
-  </si>
-  <si>
-    <t>45.53690519588148</t>
-  </si>
-  <si>
-    <t>43.26774064504646</t>
-  </si>
-  <si>
-    <t>70.4235698896683</t>
-  </si>
-  <si>
-    <t>53.884284494202035</t>
-  </si>
-  <si>
-    <t>35.97995048578927</t>
-  </si>
-  <si>
-    <t>63.443455854135166</t>
-  </si>
-  <si>
-    <t>54.80569380876487</t>
-  </si>
-  <si>
-    <t>48.85814086066775</t>
-  </si>
-  <si>
-    <t>33.765409819378846</t>
-  </si>
-  <si>
-    <t>65.57368873851851</t>
-  </si>
-  <si>
-    <t>32.82366550469357</t>
-  </si>
-  <si>
-    <t>27.11192552246264</t>
-  </si>
-  <si>
-    <t>58.13938528428537</t>
-  </si>
-  <si>
-    <t>55.755921154605396</t>
-  </si>
-  <si>
-    <t>37.76925519162692</t>
-  </si>
-  <si>
-    <t>93.01637512444702</t>
-  </si>
-  <si>
-    <t>57.82705472203019</t>
-  </si>
-  <si>
-    <t>65.93814196502393</t>
-  </si>
-  <si>
-    <t>42.76686782172129</t>
-  </si>
-  <si>
-    <t>46.47715634387228</t>
-  </si>
-  <si>
-    <t>47.13749638543881</t>
-  </si>
-  <si>
-    <t>51.441209873017016</t>
-  </si>
-  <si>
-    <t>42.52154268809735</t>
-  </si>
-  <si>
-    <t>46.193722379859366</t>
-  </si>
-  <si>
-    <t>44.47211861914148</t>
-  </si>
-  <si>
-    <t>41.24109003215746</t>
-  </si>
-  <si>
-    <t>67.4110670612328</t>
-  </si>
-  <si>
-    <t>34.77880392979353</t>
-  </si>
-  <si>
-    <t>55.733022131175346</t>
-  </si>
-  <si>
-    <t>29.49974498792686</t>
-  </si>
-  <si>
-    <t>31.825358677529135</t>
-  </si>
-  <si>
-    <t>53.77384776114306</t>
-  </si>
-  <si>
-    <t>51.81754943866848</t>
-  </si>
-  <si>
-    <t>71.30214137934539</t>
-  </si>
-  <si>
-    <t>73.65653992483469</t>
-  </si>
-  <si>
-    <t>40.17607904570383</t>
-  </si>
-  <si>
-    <t>47.848997417161115</t>
-  </si>
-  <si>
-    <t>41.46339207863448</t>
-  </si>
-  <si>
-    <t>93.66670267713921</t>
-  </si>
-  <si>
-    <t>47.20401051038748</t>
-  </si>
-  <si>
-    <t>50.66349818215903</t>
-  </si>
-  <si>
-    <t>53.077167716930916</t>
-  </si>
-  <si>
-    <t>26.804711607901382</t>
-  </si>
-  <si>
-    <t>41.78961473511643</t>
+    <t>65.91</t>
+  </si>
+  <si>
+    <t>41.67</t>
+  </si>
+  <si>
+    <t>34.2</t>
+  </si>
+  <si>
+    <t>69.89</t>
+  </si>
+  <si>
+    <t>47.68</t>
+  </si>
+  <si>
+    <t>31.99</t>
+  </si>
+  <si>
+    <t>62.12</t>
+  </si>
+  <si>
+    <t>26.12</t>
+  </si>
+  <si>
+    <t>70.54</t>
+  </si>
+  <si>
+    <t>89.15</t>
+  </si>
+  <si>
+    <t>36.04</t>
+  </si>
+  <si>
+    <t>52.4</t>
+  </si>
+  <si>
+    <t>51.86</t>
+  </si>
+  <si>
+    <t>57.36</t>
+  </si>
+  <si>
+    <t>49.22</t>
+  </si>
+  <si>
+    <t>36.77</t>
+  </si>
+  <si>
+    <t>45.54</t>
+  </si>
+  <si>
+    <t>43.27</t>
+  </si>
+  <si>
+    <t>70.42</t>
+  </si>
+  <si>
+    <t>53.88</t>
+  </si>
+  <si>
+    <t>35.98</t>
+  </si>
+  <si>
+    <t>63.44</t>
+  </si>
+  <si>
+    <t>54.81</t>
+  </si>
+  <si>
+    <t>48.86</t>
+  </si>
+  <si>
+    <t>33.77</t>
+  </si>
+  <si>
+    <t>65.57</t>
+  </si>
+  <si>
+    <t>32.82</t>
+  </si>
+  <si>
+    <t>27.11</t>
+  </si>
+  <si>
+    <t>58.14</t>
+  </si>
+  <si>
+    <t>55.76</t>
+  </si>
+  <si>
+    <t>37.77</t>
+  </si>
+  <si>
+    <t>93.02</t>
+  </si>
+  <si>
+    <t>57.83</t>
+  </si>
+  <si>
+    <t>65.94</t>
+  </si>
+  <si>
+    <t>42.77</t>
+  </si>
+  <si>
+    <t>46.48</t>
+  </si>
+  <si>
+    <t>47.14</t>
+  </si>
+  <si>
+    <t>51.44</t>
+  </si>
+  <si>
+    <t>42.52</t>
+  </si>
+  <si>
+    <t>46.19</t>
+  </si>
+  <si>
+    <t>44.47</t>
+  </si>
+  <si>
+    <t>41.24</t>
+  </si>
+  <si>
+    <t>67.41</t>
+  </si>
+  <si>
+    <t>34.78</t>
+  </si>
+  <si>
+    <t>55.73</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>31.83</t>
+  </si>
+  <si>
+    <t>53.77</t>
+  </si>
+  <si>
+    <t>51.82</t>
+  </si>
+  <si>
+    <t>71.3</t>
+  </si>
+  <si>
+    <t>73.66</t>
+  </si>
+  <si>
+    <t>40.18</t>
+  </si>
+  <si>
+    <t>47.85</t>
+  </si>
+  <si>
+    <t>41.46</t>
+  </si>
+  <si>
+    <t>93.67</t>
+  </si>
+  <si>
+    <t>47.2</t>
+  </si>
+  <si>
+    <t>50.66</t>
+  </si>
+  <si>
+    <t>53.08</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t>41.79</t>
   </si>
 </sst>
 </file>

--- a/Distribuciones/estimado cosecha.xlsx
+++ b/Distribuciones/estimado cosecha.xlsx
@@ -14,189 +14,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Estimado cosecha</t>
   </si>
   <si>
-    <t>65.91</t>
-  </si>
-  <si>
-    <t>41.67</t>
-  </si>
-  <si>
-    <t>34.2</t>
-  </si>
-  <si>
-    <t>69.89</t>
-  </si>
-  <si>
-    <t>47.68</t>
-  </si>
-  <si>
-    <t>31.99</t>
-  </si>
-  <si>
-    <t>62.12</t>
-  </si>
-  <si>
-    <t>26.12</t>
-  </si>
-  <si>
-    <t>70.54</t>
-  </si>
-  <si>
-    <t>89.15</t>
-  </si>
-  <si>
-    <t>36.04</t>
-  </si>
-  <si>
-    <t>52.4</t>
-  </si>
-  <si>
-    <t>51.86</t>
-  </si>
-  <si>
-    <t>57.36</t>
-  </si>
-  <si>
-    <t>49.22</t>
-  </si>
-  <si>
-    <t>36.77</t>
-  </si>
-  <si>
-    <t>45.54</t>
-  </si>
-  <si>
-    <t>43.27</t>
-  </si>
-  <si>
-    <t>70.42</t>
-  </si>
-  <si>
-    <t>53.88</t>
-  </si>
-  <si>
-    <t>35.98</t>
-  </si>
-  <si>
-    <t>63.44</t>
-  </si>
-  <si>
-    <t>54.81</t>
-  </si>
-  <si>
-    <t>48.86</t>
-  </si>
-  <si>
-    <t>33.77</t>
-  </si>
-  <si>
-    <t>65.57</t>
-  </si>
-  <si>
-    <t>32.82</t>
-  </si>
-  <si>
-    <t>27.11</t>
-  </si>
-  <si>
-    <t>58.14</t>
-  </si>
-  <si>
-    <t>55.76</t>
-  </si>
-  <si>
-    <t>37.77</t>
-  </si>
-  <si>
-    <t>93.02</t>
-  </si>
-  <si>
-    <t>57.83</t>
-  </si>
-  <si>
-    <t>65.94</t>
-  </si>
-  <si>
-    <t>42.77</t>
-  </si>
-  <si>
-    <t>46.48</t>
-  </si>
-  <si>
-    <t>47.14</t>
-  </si>
-  <si>
-    <t>51.44</t>
-  </si>
-  <si>
-    <t>42.52</t>
-  </si>
-  <si>
-    <t>46.19</t>
-  </si>
-  <si>
-    <t>44.47</t>
-  </si>
-  <si>
-    <t>41.24</t>
-  </si>
-  <si>
-    <t>67.41</t>
-  </si>
-  <si>
-    <t>34.78</t>
-  </si>
-  <si>
-    <t>55.73</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>31.83</t>
-  </si>
-  <si>
-    <t>53.77</t>
-  </si>
-  <si>
-    <t>51.82</t>
-  </si>
-  <si>
-    <t>71.3</t>
-  </si>
-  <si>
-    <t>73.66</t>
-  </si>
-  <si>
-    <t>40.18</t>
-  </si>
-  <si>
-    <t>47.85</t>
-  </si>
-  <si>
-    <t>41.46</t>
-  </si>
-  <si>
-    <t>93.67</t>
-  </si>
-  <si>
-    <t>47.2</t>
-  </si>
-  <si>
-    <t>50.66</t>
-  </si>
-  <si>
-    <t>53.08</t>
-  </si>
-  <si>
-    <t>26.8</t>
-  </si>
-  <si>
-    <t>41.79</t>
+    <t>74.93</t>
+  </si>
+  <si>
+    <t>48.17</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>80.07</t>
+  </si>
+  <si>
+    <t>55.4</t>
+  </si>
+  <si>
+    <t>36.12</t>
+  </si>
+  <si>
+    <t>72.17</t>
+  </si>
+  <si>
+    <t>30.06</t>
+  </si>
+  <si>
+    <t>81.06</t>
+  </si>
+  <si>
+    <t>100.81</t>
+  </si>
+  <si>
+    <t>41.27</t>
+  </si>
+  <si>
+    <t>59.19</t>
+  </si>
+  <si>
+    <t>58.13</t>
+  </si>
+  <si>
+    <t>65.59</t>
+  </si>
+  <si>
+    <t>55.68</t>
+  </si>
+  <si>
+    <t>41.95</t>
+  </si>
+  <si>
+    <t>51.43</t>
+  </si>
+  <si>
+    <t>49.62</t>
+  </si>
+  <si>
+    <t>78.3</t>
+  </si>
+  <si>
+    <t>59.76</t>
+  </si>
+  <si>
+    <t>41.54</t>
+  </si>
+  <si>
+    <t>72.31</t>
+  </si>
+  <si>
+    <t>61.94</t>
+  </si>
+  <si>
+    <t>55.45</t>
+  </si>
+  <si>
+    <t>38.8</t>
+  </si>
+  <si>
+    <t>76.01</t>
+  </si>
+  <si>
+    <t>36.46</t>
+  </si>
+  <si>
+    <t>30.32</t>
+  </si>
+  <si>
+    <t>63.89</t>
+  </si>
+  <si>
+    <t>63.69</t>
+  </si>
+  <si>
+    <t>42.49</t>
+  </si>
+  <si>
+    <t>108.02</t>
+  </si>
+  <si>
+    <t>65.99</t>
+  </si>
+  <si>
+    <t>74.81</t>
+  </si>
+  <si>
+    <t>49.54</t>
+  </si>
+  <si>
+    <t>53.13</t>
+  </si>
+  <si>
+    <t>54.49</t>
+  </si>
+  <si>
+    <t>58.78</t>
+  </si>
+  <si>
+    <t>48.24</t>
+  </si>
+  <si>
+    <t>53.35</t>
+  </si>
+  <si>
+    <t>50.31</t>
+  </si>
+  <si>
+    <t>46.58</t>
+  </si>
+  <si>
+    <t>76.79</t>
+  </si>
+  <si>
+    <t>38.89</t>
+  </si>
+  <si>
+    <t>63.5</t>
+  </si>
+  <si>
+    <t>33.75</t>
+  </si>
+  <si>
+    <t>36.87</t>
+  </si>
+  <si>
+    <t>60.59</t>
+  </si>
+  <si>
+    <t>59.36</t>
+  </si>
+  <si>
+    <t>81.31</t>
+  </si>
+  <si>
+    <t>83.28</t>
+  </si>
+  <si>
+    <t>46.17</t>
+  </si>
+  <si>
+    <t>52.52</t>
+  </si>
+  <si>
+    <t>46.06</t>
+  </si>
+  <si>
+    <t>106.76</t>
+  </si>
+  <si>
+    <t>54.14</t>
+  </si>
+  <si>
+    <t>56.83</t>
+  </si>
+  <si>
+    <t>61.88</t>
+  </si>
+  <si>
+    <t>30.1</t>
   </si>
 </sst>
 </file>
@@ -862,7 +859,7 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
